--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -1075,17 +1075,10 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>投与可能な物質または製品を識別するコード。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1098,18 +1091,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1863,6 +1844,13 @@
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
 レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -2234,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2245,7 +2233,7 @@
   <cols>
     <col min="1" max="1" width="68.30859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7853,7 +7841,7 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="Y48" t="s" s="2">
         <v>337</v>
@@ -7865,14 +7853,16 @@
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>333</v>
@@ -7890,16 +7880,16 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7907,14 +7897,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7935,16 +7923,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7970,13 +7958,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7994,7 +7982,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -8009,16 +7997,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8026,10 +8014,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8037,7 +8025,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -8049,19 +8037,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8111,10 +8099,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -8126,16 +8114,16 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8143,10 +8131,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8157,7 +8145,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8169,16 +8157,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8228,13 +8216,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8243,16 +8231,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8260,10 +8248,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8271,10 +8259,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8283,19 +8271,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8345,13 +8333,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8360,16 +8348,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8377,10 +8365,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8388,10 +8376,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8403,17 +8391,15 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8462,13 +8448,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8477,16 +8463,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8494,10 +8480,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8508,7 +8494,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8517,16 +8503,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8577,31 +8563,31 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>385</v>
+        <v>190</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8609,21 +8595,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8635,15 +8621,17 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8692,19 +8680,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8724,14 +8712,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8744,24 +8732,26 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8809,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8827,7 +8817,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8841,46 +8831,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8904,13 +8890,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8928,25 +8914,25 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8960,10 +8946,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8971,7 +8957,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8983,16 +8969,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>212</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9019,13 +9005,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9043,10 +9029,10 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -9086,10 +9072,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9098,16 +9084,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9134,13 +9120,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9161,10 +9147,10 @@
         <v>406</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -9173,16 +9159,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9190,10 +9176,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9216,15 +9202,17 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>212</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9249,13 +9237,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9273,7 +9261,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9288,27 +9276,27 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9319,7 +9307,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9331,18 +9319,20 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9390,13 +9380,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -9405,27 +9395,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9436,7 +9426,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9448,20 +9438,18 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9509,13 +9497,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9524,7 +9512,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>436</v>
@@ -9576,7 +9564,7 @@
         <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9641,16 +9629,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9658,10 +9646,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9672,7 +9660,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9684,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>446</v>
@@ -9692,9 +9680,7 @@
       <c r="M64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9743,25 +9729,25 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9775,10 +9761,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9801,13 +9787,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9858,7 +9844,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9870,13 +9856,13 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9890,21 +9876,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9916,15 +9902,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9973,19 +9961,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10005,14 +9993,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10025,24 +10013,26 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10090,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10108,7 +10098,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10122,46 +10112,42 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10209,25 +10195,25 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>456</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10241,10 +10227,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10267,15 +10253,17 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10300,13 +10288,11 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10324,7 +10310,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10348,7 +10334,7 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10356,10 +10342,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10385,13 +10371,13 @@
         <v>212</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10439,7 +10425,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10503,12 +10489,14 @@
         <v>471</v>
       </c>
       <c r="M71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10532,11 +10520,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10572,13 +10562,13 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10586,10 +10576,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10612,20 +10602,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>187</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10649,13 +10635,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10673,7 +10659,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>476</v>
+        <v>189</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10685,19 +10671,19 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>482</v>
+        <v>190</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10705,21 +10691,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10731,15 +10717,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10776,31 +10764,31 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10820,14 +10808,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10843,21 +10831,23 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>194</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10893,11 +10883,9 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10905,7 +10893,7 @@
         <v>137</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>197</v>
+        <v>486</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10917,19 +10905,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>190</v>
+        <v>487</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -10937,12 +10925,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10951,7 +10941,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10963,19 +10953,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11000,29 +10990,29 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11040,13 +11030,13 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11054,14 +11044,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11079,23 +11067,19 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>187</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11119,11 +11103,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z76" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11141,31 +11127,31 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>492</v>
+        <v>189</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11173,21 +11159,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11199,15 +11185,17 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11244,31 +11232,31 @@
         <v>79</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11288,21 +11276,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11311,27 +11299,29 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>79</v>
@@ -11361,43 +11351,43 @@
         <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>197</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>190</v>
+        <v>508</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11405,10 +11395,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11416,7 +11406,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -11431,26 +11421,24 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>79</v>
@@ -11492,7 +11480,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11510,13 +11498,13 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11524,10 +11512,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11550,18 +11538,18 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11609,7 +11597,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11627,13 +11615,13 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11641,10 +11629,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11667,17 +11655,17 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11726,7 +11714,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11744,13 +11732,13 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11758,10 +11746,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11784,17 +11772,19 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>186</v>
+        <v>536</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11843,7 +11833,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11861,13 +11851,13 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11875,12 +11865,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11901,19 +11893,19 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11938,13 +11930,11 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11962,13 +11952,13 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
@@ -11980,13 +11970,13 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11994,14 +11984,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12019,23 +12007,19 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>187</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12059,11 +12043,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12081,31 +12067,31 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>492</v>
+        <v>189</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12113,21 +12099,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12139,15 +12125,17 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12184,31 +12172,31 @@
         <v>79</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12228,21 +12216,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12251,27 +12239,29 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>79</v>
@@ -12301,43 +12291,43 @@
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>197</v>
+        <v>507</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>190</v>
+        <v>508</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12345,10 +12335,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12356,7 +12346,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12371,26 +12361,24 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12432,7 +12420,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12450,13 +12438,13 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12464,10 +12452,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12490,18 +12478,18 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12549,7 +12537,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12567,13 +12555,13 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12581,10 +12569,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12607,17 +12595,17 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12666,7 +12654,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12684,13 +12672,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12698,10 +12686,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12724,17 +12712,19 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>186</v>
+        <v>536</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12783,7 +12773,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12801,13 +12791,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12815,10 +12805,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12841,19 +12831,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>542</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12902,7 +12892,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12920,13 +12910,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12934,10 +12924,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12957,23 +12947,21 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>186</v>
+        <v>566</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13021,7 +13009,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13030,22 +13018,22 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>208</v>
+        <v>570</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13053,10 +13041,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13079,16 +13067,16 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13126,19 +13114,17 @@
         <v>79</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="AC93" s="2"/>
       <c r="AD93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13147,22 +13133,22 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13170,12 +13156,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13196,16 +13184,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13243,17 +13231,19 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13262,22 +13252,22 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>587</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>585</v>
+        <v>131</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13285,13 +13275,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -13313,16 +13303,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13372,7 +13362,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13384,19 +13374,19 @@
         <v>145</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13404,14 +13394,12 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C96" t="s" s="2">
         <v>594</v>
       </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13420,7 +13408,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13438,10 +13426,10 @@
         <v>596</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13491,150 +13479,33 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
         <v>79</v>
       </c>
     </row>
